--- a/data/excel/cpi1999.xlsx
+++ b/data/excel/cpi1999.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Denmark</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>CPI</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -376,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -420,19 +423,6 @@
         <color rgb="FFCFCFCF"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FFCFCFCF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCFCFCF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCFCFCF"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -440,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -451,10 +441,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -737,15 +724,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -755,8 +742,11 @@
       <c r="C1" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D1" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -766,8 +756,11 @@
       <c r="C2" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -777,8 +770,11 @@
       <c r="C3" s="2">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" thickBot="1">
+      <c r="D3">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -788,17 +784,25 @@
       <c r="C4" s="2">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A5" s="4"/>
+      <c r="D4">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D5">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -808,17 +812,25 @@
       <c r="C6" s="2">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A7" s="4"/>
+      <c r="D6">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="26.25" thickBot="1">
+      <c r="D7">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" thickBot="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -828,8 +840,11 @@
       <c r="C8" s="2">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="26.25" thickBot="1">
+      <c r="D8">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" thickBot="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -839,8 +854,11 @@
       <c r="C9" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D9">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -850,17 +868,25 @@
       <c r="C10" s="2">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="26.25" thickBot="1">
-      <c r="A11" s="4"/>
+      <c r="D10">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.25" thickBot="1">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="26.25" thickBot="1">
+      <c r="D11">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.25" thickBot="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -870,8 +896,11 @@
       <c r="C12" s="2">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D12">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -881,8 +910,11 @@
       <c r="C13" s="2">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="26.25" thickBot="1">
+      <c r="D13">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.25" thickBot="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -892,8 +924,11 @@
       <c r="C14" s="2">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D14">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -903,8 +938,11 @@
       <c r="C15" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="26.25" thickBot="1">
+      <c r="D15">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.25" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -914,17 +952,25 @@
       <c r="C16" s="2">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A17" s="4"/>
+      <c r="D16">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D17">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -934,8 +980,11 @@
       <c r="C18" s="2">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D18">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -945,8 +994,11 @@
       <c r="C19" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D19">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -956,8 +1008,11 @@
       <c r="C20" s="2">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D20">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -967,8 +1022,11 @@
       <c r="C21" s="2">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D21">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -978,8 +1036,11 @@
       <c r="C22" s="2">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D22">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -989,17 +1050,25 @@
       <c r="C23" s="2">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A24" s="4"/>
+      <c r="D23">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="2">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D24">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1009,8 +1078,11 @@
       <c r="C25" s="2">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D25">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1020,17 +1092,25 @@
       <c r="C26" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A27" s="4"/>
+      <c r="D26">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D27">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1040,8 +1120,11 @@
       <c r="C28" s="2">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D28">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1051,8 +1134,11 @@
       <c r="C29" s="2">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D29">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1062,17 +1148,25 @@
       <c r="C30" s="2">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A31" s="4"/>
+      <c r="D30">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
       <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="2">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D31">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1082,8 +1176,11 @@
       <c r="C32" s="2">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="26.25" thickBot="1">
+      <c r="D32">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="26.25" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1093,17 +1190,25 @@
       <c r="C33" s="2">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A34" s="4"/>
+      <c r="D33">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
       <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="2">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="26.25" thickBot="1">
+      <c r="D34">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="26.25" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1113,17 +1218,25 @@
       <c r="C35" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A36" s="4"/>
+      <c r="D35">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
       <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D36">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1133,17 +1246,25 @@
       <c r="C37" s="2">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A38" s="4"/>
+      <c r="D37">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="2">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D38">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1153,8 +1274,11 @@
       <c r="C39" s="2">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="26.25" thickBot="1">
+      <c r="D39">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="26.25" thickBot="1">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1164,8 +1288,11 @@
       <c r="C40" s="2">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D40">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1175,8 +1302,11 @@
       <c r="C41" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D41">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1186,17 +1316,25 @@
       <c r="C42" s="2">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A43" s="4"/>
+      <c r="D42">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="2">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D43">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1206,8 +1344,11 @@
       <c r="C44" s="2">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D44">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1217,8 +1358,11 @@
       <c r="C45" s="2">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D45">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1228,35 +1372,53 @@
       <c r="C46" s="2">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A47" s="5"/>
+      <c r="D46">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
       <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="2">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A48" s="5"/>
+      <c r="D47">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A48" s="3">
+        <v>45</v>
+      </c>
       <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="2">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="26.25" thickBot="1">
-      <c r="A49" s="4"/>
+      <c r="D48">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="26.25" thickBot="1">
+      <c r="A49" s="3">
+        <v>45</v>
+      </c>
       <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="2">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="26.25" thickBot="1">
+      <c r="D49">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="26.25" thickBot="1">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1266,8 +1428,11 @@
       <c r="C50" s="2">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D50">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1277,26 +1442,39 @@
       <c r="C51" s="2">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A52" s="5"/>
+      <c r="D51">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
       <c r="B52" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="2">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="26.25" thickBot="1">
-      <c r="A53" s="4"/>
+      <c r="D52">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="26.25" thickBot="1">
+      <c r="A53" s="3">
+        <v>50</v>
+      </c>
       <c r="B53" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="2">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="26.25" thickBot="1">
+      <c r="D53">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="26.25" thickBot="1">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1306,8 +1484,11 @@
       <c r="C54" s="2">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="26.25" thickBot="1">
+      <c r="D54">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="26.25" thickBot="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -1317,17 +1498,25 @@
       <c r="C55" s="2">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A56" s="4"/>
+      <c r="D55">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
       <c r="B56" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C56" s="2">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="26.25" thickBot="1">
+      <c r="D56">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="26.25" thickBot="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -1337,17 +1526,25 @@
       <c r="C57" s="2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A58" s="4"/>
+      <c r="D57">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
       <c r="B58" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C58" s="2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D58">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -1357,44 +1554,67 @@
       <c r="C59" s="2">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A60" s="5"/>
+      <c r="D59">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
       <c r="B60" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="2">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A61" s="5"/>
+      <c r="D60">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A61" s="3">
+        <v>58</v>
+      </c>
       <c r="B61" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C61" s="2">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A62" s="5"/>
+      <c r="D61">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A62" s="3">
+        <v>58</v>
+      </c>
       <c r="B62" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="2">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A63" s="4"/>
+      <c r="D62">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
       <c r="B63" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="2">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D63">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -1404,44 +1624,67 @@
       <c r="C64" s="2">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A65" s="5"/>
+      <c r="D64">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
       <c r="B65" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C65" s="2">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A66" s="5"/>
+      <c r="D65">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A66" s="3">
+        <v>63</v>
+      </c>
       <c r="B66" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C66" s="2">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="26.25" thickBot="1">
-      <c r="A67" s="5"/>
+      <c r="D66">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="26.25" thickBot="1">
+      <c r="A67" s="3">
+        <v>63</v>
+      </c>
       <c r="B67" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C67" s="2">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A68" s="4"/>
+      <c r="D67">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
       <c r="B68" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C68" s="2">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="26.25" thickBot="1">
+      <c r="D68">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="26.25" thickBot="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -1451,17 +1694,25 @@
       <c r="C69" s="2">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A70" s="4"/>
+      <c r="D69">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
       <c r="B70" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="2">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="26.25" thickBot="1">
+      <c r="D70">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="26.25" thickBot="1">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -1471,8 +1722,11 @@
       <c r="C71" s="2">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D71">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickBot="1">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -1482,8 +1736,11 @@
       <c r="C72" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D72">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -1493,17 +1750,25 @@
       <c r="C73" s="2">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A74" s="4"/>
+      <c r="D73">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
       <c r="B74" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C74" s="2">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D74">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" thickBot="1">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -1513,8 +1778,11 @@
       <c r="C75" s="2">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="26.25" thickBot="1">
+      <c r="D75">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="26.25" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -1524,44 +1792,67 @@
       <c r="C76" s="2">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A77" s="5"/>
+      <c r="D76">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
       <c r="B77" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="2">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A78" s="5"/>
+      <c r="D77">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A78" s="3">
+        <v>75</v>
+      </c>
       <c r="B78" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C78" s="2">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="26.25" thickBot="1">
-      <c r="A79" s="5"/>
+      <c r="D78">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="26.25" thickBot="1">
+      <c r="A79" s="3">
+        <v>75</v>
+      </c>
       <c r="B79" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="2">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A80" s="4"/>
+      <c r="D79">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
       <c r="B80" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="2">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D80">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -1571,17 +1862,25 @@
       <c r="C81" s="2">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A82" s="4"/>
+      <c r="D81">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
       <c r="B82" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C82" s="2">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D82">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" thickBot="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -1591,17 +1890,25 @@
       <c r="C83" s="2">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A84" s="4"/>
+      <c r="D83">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
       <c r="B84" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C84" s="2">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D84">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" thickBot="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -1611,26 +1918,39 @@
       <c r="C85" s="2">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A86" s="5"/>
+      <c r="D85">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
       <c r="B86" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C86" s="2">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="26.25" thickBot="1">
-      <c r="A87" s="4"/>
+      <c r="D86">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="26.25" thickBot="1">
+      <c r="A87" s="3">
+        <v>84</v>
+      </c>
       <c r="B87" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C87" s="2">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="26.25" thickBot="1">
+      <c r="D87">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="26.25" thickBot="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -1640,26 +1960,39 @@
       <c r="C88" s="2">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A89" s="5"/>
+      <c r="D88">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A89" s="3">
+        <v>87</v>
+      </c>
       <c r="B89" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C89" s="2">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A90" s="4"/>
+      <c r="D89">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A90" s="3">
+        <v>87</v>
+      </c>
       <c r="B90" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C90" s="2">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D90">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" thickBot="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -1669,26 +2002,39 @@
       <c r="C91" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A92" s="5"/>
+      <c r="D91">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
       <c r="B92" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C92" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="26.25" thickBot="1">
-      <c r="A93" s="4"/>
+      <c r="D92">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="26.25" thickBot="1">
+      <c r="A93" s="3">
+        <v>90</v>
+      </c>
       <c r="B93" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C93" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D93">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" thickBot="1">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -1698,8 +2044,11 @@
       <c r="C94" s="2">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D94">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -1709,17 +2058,25 @@
       <c r="C95" s="2">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="26.25" thickBot="1">
-      <c r="A96" s="4"/>
+      <c r="D95">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="26.25" thickBot="1">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
       <c r="B96" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C96" s="2">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="26.25" thickBot="1">
+      <c r="D96">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="26.25" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -1729,17 +2086,25 @@
       <c r="C97" s="2">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A98" s="4"/>
+      <c r="D97">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
       <c r="B98" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C98" s="2">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="15.75" thickBot="1">
+      <c r="D98">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" thickBot="1">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -1749,8 +2114,11 @@
       <c r="C99" s="2">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="26.25" thickBot="1">
+      <c r="D99">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="26.25" thickBot="1">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -1760,37 +2128,11 @@
       <c r="C100" s="2">
         <v>1.5</v>
       </c>
+      <c r="D100">
+        <v>1999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A26:A27"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
